--- a/dataType/Exomiser.xlsx
+++ b/dataType/Exomiser.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Labkey_DataReleases_V10\dataType\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GMSLabkey\dataType\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FE1A3A-DCED-4867-9E21-CCED1E341572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -44,18 +39,12 @@
     <t>participant_id</t>
   </si>
   <si>
-    <t>family_id</t>
-  </si>
-  <si>
     <t>interpretation_cohort_id</t>
   </si>
   <si>
     <t>interpretation_request_id</t>
   </si>
   <si>
-    <t>sample_id</t>
-  </si>
-  <si>
     <t>phenotype</t>
   </si>
   <si>
@@ -65,9 +54,6 @@
     <t>participant_phenotypic_sex</t>
   </si>
   <si>
-    <t>assembly</t>
-  </si>
-  <si>
     <t>chromosome</t>
   </si>
   <si>
@@ -146,12 +132,6 @@
     <t>father_affected</t>
   </si>
   <si>
-    <t>full_brothers_affected</t>
-  </si>
-  <si>
-    <t>full_sisters_affected</t>
-  </si>
-  <si>
     <t>varchar</t>
   </si>
   <si>
@@ -162,12 +142,24 @@
   </si>
   <si>
     <t>integer</t>
+  </si>
+  <si>
+    <t>referral_id</t>
+  </si>
+  <si>
+    <t>full_siblings_affected</t>
+  </si>
+  <si>
+    <t>platekey</t>
+  </si>
+  <si>
+    <t>genome_build</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -565,19 +557,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -586,16 +578,16 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -604,328 +596,324 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="B28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="B38" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>40</v>
-      </c>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="4"/>
+      <c r="B39" s="3"/>
       <c r="C39" s="1"/>
     </row>
   </sheetData>
